--- a/Documentation/Testing/TestResults.xlsx
+++ b/Documentation/Testing/TestResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Dokumente\Schule\HTL\3. Klasse\Projekt Entwicklung\Release\CHAT-PACK-RELEASE\Documentation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_01E09902C27071A76FBCE7B9BD18B63FD5D2ECCC" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{9DD1E925-76B0-431D-8826-F4340C25594B}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_01E09902C27071A76FBCE7B9BD18B63FD5D2ECCC" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{950FF7BA-F6C6-452A-8F34-41CF10801162}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,22 +371,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,19 +502,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -648,7 +648,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,7 +1981,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2020,10 +2020,10 @@
         <v>41780</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D8" si="0">E3-C3-B3</f>
@@ -2039,10 +2039,10 @@
         <v>41787</v>
       </c>
       <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
         <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
@@ -2058,10 +2058,10 @@
         <v>41794</v>
       </c>
       <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
         <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
@@ -2077,10 +2077,10 @@
         <v>41801</v>
       </c>
       <c r="B6" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
@@ -2096,10 +2096,10 @@
         <v>41808</v>
       </c>
       <c r="B7" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
@@ -2115,14 +2115,14 @@
         <v>41810</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>15</v>
